--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Library Management\library-management - backup\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD12F56D-8F8F-468D-B29B-FD88C184CC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47C689-711C-41B2-BAEB-A088B6017617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{333A4A7D-7F4D-468A-8F86-54376DAC4C07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,13 +121,55 @@
   </si>
   <si>
     <t>Fundamentals of Electric Circuits</t>
+  </si>
+  <si>
+    <t>bk001</t>
+  </si>
+  <si>
+    <t>bk002</t>
+  </si>
+  <si>
+    <t>bk003</t>
+  </si>
+  <si>
+    <t>bk004</t>
+  </si>
+  <si>
+    <t>bk005</t>
+  </si>
+  <si>
+    <t>bk006</t>
+  </si>
+  <si>
+    <t>bk007</t>
+  </si>
+  <si>
+    <t>bk008</t>
+  </si>
+  <si>
+    <t>bk009</t>
+  </si>
+  <si>
+    <t>bk010</t>
+  </si>
+  <si>
+    <t>bk011</t>
+  </si>
+  <si>
+    <t>bk012</t>
+  </si>
+  <si>
+    <t>bk013</t>
+  </si>
+  <si>
+    <t>bk014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +181,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,12 +608,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -587,8 +635,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -601,8 +649,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -615,8 +663,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -629,8 +677,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
@@ -643,8 +691,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -657,8 +705,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
@@ -671,8 +719,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
@@ -685,8 +733,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -699,8 +747,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -713,8 +761,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -727,8 +775,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>29</v>
@@ -741,8 +789,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -755,8 +803,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -769,8 +817,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -783,6 +831,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
